--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\Reto_Tecnico-Sofka\Reto_Tecnico-Sofka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C045F01D-AFC1-47FB-B122-A26B25D76C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9441E1-3A7D-4BFB-B626-2ECADE8BA926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>producto</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>Kr 12- 29</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Armenia</t>
   </si>
 </sst>
 </file>
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CA2474-79AA-45C0-875C-4B16A37B45E7}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,10 +485,11 @@
     <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -505,10 +512,13 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -530,7 +540,10 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2">
         <v>600001</v>
       </c>
     </row>
